--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -36,6 +36,9 @@
     <t>skillIds</t>
   </si>
   <si>
+    <t>baseAttrId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t>技能id列表</t>
   </si>
   <si>
+    <t>基础属性id</t>
+  </si>
+  <si>
     <t>上官翎</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
   </si>
   <si>
     <t>刺客</t>
+  </si>
+  <si>
+    <t>怪物1</t>
   </si>
 </sst>
 </file>
@@ -130,19 +139,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,65 +246,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -230,12 +254,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -243,9 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,22 +280,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -289,25 +298,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,73 +424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,61 +448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,26 +483,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,6 +512,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +560,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -582,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,22 +1097,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,48 +1132,57 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:6">
+    <row r="3" ht="93" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1171,19 +1190,22 @@
         <v>1000001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>15011001</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>10001001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1191,19 +1213,22 @@
         <v>1000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>15011002</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>10001002</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1211,19 +1236,22 @@
         <v>1000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>15011001</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>10001003</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:6">
+    <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1231,19 +1259,22 @@
         <v>1000004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>15011002</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>10001004</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1251,19 +1282,22 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>15011001</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>10001005</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1271,50 +1305,79 @@
         <v>1000006</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>15011002</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>10001006</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>1000101</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>15011001</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>10002001</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7">
       <c r="B12">
         <v>1000102</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>15011002</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>10002002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1000201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>15012001</v>
+      </c>
+      <c r="G14">
+        <v>10003001</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1393,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1347,7 +1410,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -139,8 +139,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -148,52 +156,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,37 +260,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -253,31 +268,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,26 +527,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +549,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -569,17 +573,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1375,6 +1375,9 @@
       </c>
       <c r="E14">
         <v>15012001</v>
+      </c>
+      <c r="F14">
+        <v>3002001</v>
       </c>
       <c r="G14">
         <v>10003001</v>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -139,9 +139,91 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,91 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,30 +254,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,67 +292,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,115 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +483,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,6 +512,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,41 +555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,15 +569,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,16 +603,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,115 +621,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1377,7 +1377,7 @@
         <v>15012001</v>
       </c>
       <c r="F14">
-        <v>3002001</v>
+        <v>2002001</v>
       </c>
       <c r="G14">
         <v>10003001</v>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -140,45 +140,115 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,94 +260,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,181 +292,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,16 +487,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +527,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -525,17 +545,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,31 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,37 +603,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,94 +642,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -30,13 +30,34 @@
     <t>describe</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>modelId</t>
   </si>
   <si>
+    <t>baseAttrId</t>
+  </si>
+  <si>
+    <t>levelAttrId</t>
+  </si>
+  <si>
+    <t>starAttrId</t>
+  </si>
+  <si>
     <t>skillIds</t>
   </si>
   <si>
-    <t>baseAttrId</t>
+    <t>level</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>skillLevels</t>
+  </si>
+  <si>
+    <t>aiScript</t>
   </si>
   <si>
     <t>int</t>
@@ -57,13 +78,34 @@
     <t>介绍</t>
   </si>
   <si>
-    <t>战斗模型Id(先填资源id 之后换成另一张表格过度)</t>
-  </si>
-  <si>
-    <t>技能id列表</t>
-  </si>
-  <si>
-    <t>基础属性id</t>
+    <t>类型(0 npc单位实例 , 1 英雄模板)</t>
+  </si>
+  <si>
+    <t>模型Id(先填资源id 之后换成另一张表格过度)</t>
+  </si>
+  <si>
+    <t>基础属性模板id</t>
+  </si>
+  <si>
+    <t>等级属性模板id</t>
+  </si>
+  <si>
+    <t>星级属性模板id</t>
+  </si>
+  <si>
+    <t>技能id列表(这个会换成技能模板)</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>技能等级</t>
+  </si>
+  <si>
+    <t>AI脚本</t>
   </si>
   <si>
     <t>上官翎</t>
@@ -75,6 +117,9 @@
     <t>2001001,2001002</t>
   </si>
   <si>
+    <t>BaseAI</t>
+  </si>
+  <si>
     <t>凤紫夕</t>
   </si>
   <si>
@@ -118,6 +163,24 @@
   </si>
   <si>
     <t>怪物1</t>
+  </si>
+  <si>
+    <t>上官翎_npc_001</t>
+  </si>
+  <si>
+    <t>上官翎_npc_002</t>
+  </si>
+  <si>
+    <t>上官翎_npc_003</t>
+  </si>
+  <si>
+    <t>上官翎_npc_004</t>
+  </si>
+  <si>
+    <t>上官翎_npc_005</t>
+  </si>
+  <si>
+    <t>上官翎_npc_006</t>
   </si>
 </sst>
 </file>
@@ -127,8 +190,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -139,8 +202,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,29 +239,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,41 +261,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,18 +301,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,14 +333,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,13 +355,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,49 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,115 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,25 +550,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,13 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +612,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -569,17 +636,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,137 +666,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,6 +811,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,23 +1163,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,54 +1205,117 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:7">
+    <row r="3" ht="93" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1190,22 +1323,34 @@
         <v>1000001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>15011001</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G4">
         <v>10001001</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1213,22 +1358,34 @@
         <v>1000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>15011002</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="G5">
         <v>10001002</v>
       </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1236,22 +1393,34 @@
         <v>1000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>15011001</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>15011002</v>
       </c>
       <c r="G6">
-        <v>10001003</v>
+        <v>10001002</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:7">
+    <row r="7" ht="15" customHeight="1" spans="1:14">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1259,22 +1428,34 @@
         <v>1000004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>15011002</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="G7">
-        <v>10001004</v>
+        <v>10001002</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1282,22 +1463,34 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>15011001</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>15011002</v>
       </c>
       <c r="G8">
-        <v>10001005</v>
+        <v>10001002</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1305,62 +1498,98 @@
         <v>1000006</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>15011002</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="G9">
-        <v>10001006</v>
+        <v>10001002</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:14">
       <c r="B11">
         <v>1000101</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>15011001</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="G11">
-        <v>10002001</v>
+        <v>10001002</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:14">
       <c r="B12">
         <v>1000102</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>15011002</v>
+      </c>
+      <c r="G12">
+        <v>10001002</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12">
-        <v>15011002</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>10002002</v>
+      <c r="N12" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1368,19 +1597,304 @@
         <v>1000201</v>
       </c>
       <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>15012001</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10003001</v>
+      </c>
+      <c r="H14">
+        <v>10001</v>
+      </c>
+      <c r="I14">
+        <v>10001</v>
+      </c>
+      <c r="J14">
+        <v>2002001</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1200001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>15011001</v>
+      </c>
+      <c r="G16">
+        <v>10001001</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>33</v>
       </c>
-      <c r="E14">
-        <v>15012001</v>
-      </c>
-      <c r="F14">
-        <v>2002001</v>
-      </c>
-      <c r="G14">
-        <v>10003001</v>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1200002</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>15011001</v>
+      </c>
+      <c r="G17">
+        <v>10001001</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1200003</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>15011001</v>
+      </c>
+      <c r="G18">
+        <v>10001001</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1200004</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>15011001</v>
+      </c>
+      <c r="G19">
+        <v>10001001</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1200005</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>15011001</v>
+      </c>
+      <c r="G20">
+        <v>10001001</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1200006</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>15011001</v>
+      </c>
+      <c r="G21">
+        <v>10001001</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -168,7 +168,13 @@
     <t>上官翎_npc_001</t>
   </si>
   <si>
+    <t>2001001,2002030,2002032</t>
+  </si>
+  <si>
     <t>上官翎_npc_002</t>
+  </si>
+  <si>
+    <t>2001001,2001002,2001003,2001004,2001005</t>
   </si>
   <si>
     <t>上官翎_npc_003</t>
@@ -189,9 +195,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -202,30 +208,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +224,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,14 +254,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -301,6 +284,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -308,8 +299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,9 +323,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,187 +361,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,21 +552,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,11 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +635,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -654,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,137 +672,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,9 +817,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1166,7 +1169,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1179,7 +1182,7 @@
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="22.375" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1299,7 +1302,7 @@
       <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="K3" t="s">
@@ -1662,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -1685,10 +1688,10 @@
         <v>1200002</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1706,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -1729,10 +1732,10 @@
         <v>1200003</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1750,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -1773,10 +1776,10 @@
         <v>1200004</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1794,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -1817,10 +1820,10 @@
         <v>1200005</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1838,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -1861,10 +1864,10 @@
         <v>1200006</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1882,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K21">
         <v>10</v>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>上官翎_npc_001</t>
   </si>
   <si>
-    <t>2001001,2002030,2002032</t>
+    <t>2001001,2002031</t>
   </si>
   <si>
     <t>上官翎_npc_002</t>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,18 +114,21 @@
     <t>刺客 原是崆峒派弟子</t>
   </si>
   <si>
+    <t>2001001,2001002,2001003,2001004,2001005,2002031</t>
+  </si>
+  <si>
+    <t>BaseAI</t>
+  </si>
+  <si>
+    <t>凤紫夕</t>
+  </si>
+  <si>
+    <t>刺客 锦衣卫副千户</t>
+  </si>
+  <si>
     <t>2001001,2001002</t>
   </si>
   <si>
-    <t>BaseAI</t>
-  </si>
-  <si>
-    <t>凤紫夕</t>
-  </si>
-  <si>
-    <t>刺客 锦衣卫副千户</t>
-  </si>
-  <si>
     <t>唐依</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
   </si>
   <si>
     <t>上官翎_npc_001</t>
-  </si>
-  <si>
-    <t>2001001,2002031</t>
   </si>
   <si>
     <t>上官翎_npc_002</t>
@@ -802,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,6 +817,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1169,7 +1172,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1182,7 +1185,7 @@
     <col min="7" max="7" width="17.25" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="47.125" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1346,7 +1349,7 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="N4" t="s">
@@ -1382,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>33</v>
@@ -1396,10 +1399,10 @@
         <v>1000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1417,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
@@ -1431,10 +1434,10 @@
         <v>1000004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1452,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
         <v>33</v>
@@ -1466,10 +1469,10 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1487,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -1501,10 +1504,10 @@
         <v>1000006</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1522,7 +1525,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
         <v>33</v>
@@ -1533,10 +1536,10 @@
         <v>1000101</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1554,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
         <v>33</v>
@@ -1565,10 +1568,10 @@
         <v>1000102</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1586,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
         <v>33</v>
@@ -1600,10 +1603,10 @@
         <v>1000201</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1644,10 +1647,10 @@
         <v>1200001</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1665,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="K16">
         <v>5</v>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -171,10 +171,16 @@
     <t>上官翎_npc_001</t>
   </si>
   <si>
+    <t>1,1,1,1,1,1</t>
+  </si>
+  <si>
     <t>上官翎_npc_002</t>
   </si>
   <si>
     <t>2001001,2001002,2001003,2001004,2001005</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
   </si>
   <si>
     <t>上官翎_npc_003</t>
@@ -1172,14 +1178,14 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
@@ -1676,8 +1682,8 @@
       <c r="L16">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>1</v>
+      <c r="M16" t="s">
+        <v>51</v>
       </c>
       <c r="N16" t="s">
         <v>33</v>
@@ -1691,10 +1697,10 @@
         <v>1200002</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1712,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17">
         <v>6</v>
@@ -1720,8 +1726,8 @@
       <c r="L17">
         <v>2</v>
       </c>
-      <c r="M17">
-        <v>1</v>
+      <c r="M17" t="s">
+        <v>54</v>
       </c>
       <c r="N17" t="s">
         <v>33</v>
@@ -1735,10 +1741,10 @@
         <v>1200003</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1756,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -1764,8 +1770,8 @@
       <c r="L18">
         <v>2</v>
       </c>
-      <c r="M18">
-        <v>1</v>
+      <c r="M18" t="s">
+        <v>54</v>
       </c>
       <c r="N18" t="s">
         <v>33</v>
@@ -1779,10 +1785,10 @@
         <v>1200004</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1800,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -1808,8 +1814,8 @@
       <c r="L19">
         <v>2</v>
       </c>
-      <c r="M19">
-        <v>1</v>
+      <c r="M19" t="s">
+        <v>54</v>
       </c>
       <c r="N19" t="s">
         <v>33</v>
@@ -1823,10 +1829,10 @@
         <v>1200005</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1844,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20">
         <v>9</v>
@@ -1852,8 +1858,8 @@
       <c r="L20">
         <v>3</v>
       </c>
-      <c r="M20">
-        <v>1</v>
+      <c r="M20" t="s">
+        <v>54</v>
       </c>
       <c r="N20" t="s">
         <v>33</v>
@@ -1867,10 +1873,10 @@
         <v>1200006</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1888,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -1896,8 +1902,8 @@
       <c r="L21">
         <v>3</v>
       </c>
-      <c r="M21">
-        <v>1</v>
+      <c r="M21" t="s">
+        <v>54</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K17" sqref="K17:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1677,7 +1677,7 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>2</v>
@@ -1721,7 +1721,7 @@
         <v>53</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -1765,7 +1765,7 @@
         <v>53</v>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -1809,7 +1809,7 @@
         <v>53</v>
       </c>
       <c r="K19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -1853,7 +1853,7 @@
         <v>53</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>53</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>3</v>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -108,13 +108,13 @@
     <t>AI脚本</t>
   </si>
   <si>
-    <t>上官翎</t>
-  </si>
-  <si>
-    <t>刺客 原是崆峒派弟子</t>
-  </si>
-  <si>
-    <t>2001001,2001002,2001003,2001004,2001005,2002031</t>
+    <t>上官唯</t>
+  </si>
+  <si>
+    <t>原是崆峒派弟子 现在未知</t>
+  </si>
+  <si>
+    <t>2001001,2001002,2001003,2001004</t>
   </si>
   <si>
     <t>BaseAI</t>
@@ -123,7 +123,7 @@
     <t>凤紫夕</t>
   </si>
   <si>
-    <t>刺客 锦衣卫副千户</t>
+    <t>锦衣卫副千户</t>
   </si>
   <si>
     <t>2001001,2001002</t>
@@ -132,25 +132,25 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>弓箭手 + 战士 峨眉弟子</t>
+    <t>峨眉弟子</t>
   </si>
   <si>
     <t>夜魂</t>
   </si>
   <si>
-    <t>战士 张无忌后代</t>
+    <t>穿越过来的</t>
   </si>
   <si>
     <t>萧玉</t>
   </si>
   <si>
-    <t>战士 峨眉掌门</t>
+    <t>峨眉掌门</t>
   </si>
   <si>
     <t>林清远</t>
   </si>
   <si>
-    <t>战士 武当掌门</t>
+    <t>武当掌门</t>
   </si>
   <si>
     <t>沈寻</t>
@@ -168,6 +168,24 @@
     <t>怪物1</t>
   </si>
   <si>
+    <t>2002001</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>刀疤</t>
+  </si>
+  <si>
+    <t>10003031</t>
+  </si>
+  <si>
+    <t>2003001,2003002,2003003,2003004</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
     <t>上官翎_npc_001</t>
   </si>
   <si>
@@ -177,9 +195,6 @@
     <t>上官翎_npc_002</t>
   </si>
   <si>
-    <t>2001001,2001002,2001003,2001004,2001005</t>
-  </si>
-  <si>
     <t>1,1,1,1,1</t>
   </si>
   <si>
@@ -193,6 +208,12 @@
   </si>
   <si>
     <t>上官翎_npc_006</t>
+  </si>
+  <si>
+    <t>唐依_npc_001</t>
+  </si>
+  <si>
+    <t>2001021,2001022,2001023,2001024</t>
   </si>
 </sst>
 </file>
@@ -1175,17 +1196,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17:K21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
@@ -1283,7 +1304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:14">
+    <row r="3" ht="54" spans="1:14">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1438,7 @@
         <v>15011002</v>
       </c>
       <c r="G6">
-        <v>10001002</v>
+        <v>10001003</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1629,8 +1650,8 @@
       <c r="I14">
         <v>10001</v>
       </c>
-      <c r="J14">
-        <v>2002001</v>
+      <c r="J14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1638,113 +1659,75 @@
       <c r="L14">
         <v>2</v>
       </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="M14" t="s">
+        <v>51</v>
       </c>
       <c r="N14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>1200001</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>15011001</v>
-      </c>
-      <c r="G16">
-        <v>10001001</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1000202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>15013001</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <v>10001</v>
+      </c>
+      <c r="I15">
+        <v>10001</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>1200002</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>15011001</v>
-      </c>
-      <c r="G17">
-        <v>10001001</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N17" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="10:10">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>1200003</v>
+        <v>1200001</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1761,17 +1744,17 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>53</v>
+      <c r="J18" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N18" t="s">
         <v>33</v>
@@ -1782,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>1200004</v>
+        <v>1200002</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1805,8 +1788,8 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>53</v>
+      <c r="J19" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1815,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N19" t="s">
         <v>33</v>
@@ -1826,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>1200005</v>
+        <v>1200003</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1849,17 +1832,17 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>53</v>
+      <c r="J20" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N20" t="s">
         <v>33</v>
@@ -1870,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>1200006</v>
+        <v>1200004</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1893,19 +1876,151 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>53</v>
+      <c r="J21" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="K21">
         <v>2</v>
       </c>
       <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1200005</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>15011001</v>
+      </c>
+      <c r="G22">
+        <v>10001001</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="M21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1200006</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>15011001</v>
+      </c>
+      <c r="G23">
+        <v>10001001</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1200021</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>15011021</v>
+      </c>
+      <c r="G26">
+        <v>10001003</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,10 @@
     <t>刺客</t>
   </si>
   <si>
+    <t>2002001</t>
+  </si>
+  <si>
     <t>怪物1</t>
-  </si>
-  <si>
-    <t>2002001</t>
   </si>
   <si>
     <t>1,1</t>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1622,6 +1622,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="13" spans="10:10">
+      <c r="J13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>0</v>
@@ -1630,10 +1635,10 @@
         <v>1000201</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1650,9 +1655,7 @@
       <c r="I14">
         <v>10001</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="J14" s="4"/>
       <c r="K14">
         <v>3</v>
       </c>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -165,10 +165,13 @@
     <t>刺客</t>
   </si>
   <si>
+    <t>2002001(怪物1 普通攻击)</t>
+  </si>
+  <si>
+    <t>怪物1</t>
+  </si>
+  <si>
     <t>2002001</t>
-  </si>
-  <si>
-    <t>怪物1</t>
   </si>
   <si>
     <t>1,1</t>
@@ -1199,7 +1202,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1655,7 +1658,9 @@
       <c r="I14">
         <v>10001</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="K14">
         <v>3</v>
       </c>
@@ -1663,7 +1668,7 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N14" t="s">
         <v>33</v>
@@ -1677,10 +1682,10 @@
         <v>1000202</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1689,7 +1694,7 @@
         <v>15013001</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -1698,7 +1703,7 @@
         <v>10001</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1707,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N15" t="s">
         <v>33</v>
@@ -1727,10 +1732,10 @@
         <v>1200001</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1757,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N18" t="s">
         <v>33</v>
@@ -1771,10 +1776,10 @@
         <v>1200002</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1801,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N19" t="s">
         <v>33</v>
@@ -1815,10 +1820,10 @@
         <v>1200003</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1845,7 +1850,7 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N20" t="s">
         <v>33</v>
@@ -1859,10 +1864,10 @@
         <v>1200004</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1889,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>
@@ -1903,10 +1908,10 @@
         <v>1200005</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1933,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N22" t="s">
         <v>33</v>
@@ -1947,10 +1952,10 @@
         <v>1200006</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1977,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
@@ -1991,10 +1996,10 @@
         <v>1200021</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2012,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2021,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N26" t="s">
         <v>33</v>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>#</t>
   </si>
@@ -135,6 +135,9 @@
     <t>峨眉弟子</t>
   </si>
   <si>
+    <t>2001021,2001022,2001023,2001024</t>
+  </si>
+  <si>
     <t>夜魂</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>怪物1</t>
   </si>
   <si>
+    <t>10003001</t>
+  </si>
+  <si>
     <t>2002001</t>
   </si>
   <si>
@@ -189,9 +195,18 @@
     <t>1,1,1,1</t>
   </si>
   <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>10003002</t>
+  </si>
+  <si>
     <t>上官翎_npc_001</t>
   </si>
   <si>
+    <t>2001001,2001005</t>
+  </si>
+  <si>
     <t>1,1,1,1,1,1</t>
   </si>
   <si>
@@ -216,7 +231,10 @@
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2001021,2001022,2001023,2001024</t>
+    <t>2001021,2001022,2001023</t>
+  </si>
+  <si>
+    <t>2001024,(唐依e技能)</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1403,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>15011002</v>
+        <v>15011001</v>
       </c>
       <c r="G5">
         <v>10001002</v>
@@ -1438,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>15011002</v>
+        <v>15011021</v>
       </c>
       <c r="G6">
         <v>10001003</v>
@@ -1450,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
         <v>33</v>
@@ -1464,16 +1482,16 @@
         <v>1000004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>15011002</v>
+        <v>15011001</v>
       </c>
       <c r="G7">
         <v>10001002</v>
@@ -1499,16 +1517,16 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>15011002</v>
+        <v>15011001</v>
       </c>
       <c r="G8">
         <v>10001002</v>
@@ -1534,16 +1552,16 @@
         <v>1000006</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>15011002</v>
+        <v>15011001</v>
       </c>
       <c r="G9">
         <v>10001002</v>
@@ -1566,10 +1584,10 @@
         <v>1000101</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1598,16 +1616,16 @@
         <v>1000102</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>15011002</v>
+        <v>15011001</v>
       </c>
       <c r="G12">
         <v>10001002</v>
@@ -1627,7 +1645,7 @@
     </row>
     <row r="13" spans="10:10">
       <c r="J13" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1638,10 +1656,10 @@
         <v>1000201</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1649,8 +1667,8 @@
       <c r="F14">
         <v>15012001</v>
       </c>
-      <c r="G14" s="4">
-        <v>10003001</v>
+      <c r="G14" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="H14">
         <v>10001</v>
@@ -1659,7 +1677,7 @@
         <v>10001</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1668,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N14" t="s">
         <v>33</v>
@@ -1682,10 +1700,10 @@
         <v>1000202</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1694,7 +1712,7 @@
         <v>15013001</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -1703,7 +1721,7 @@
         <v>10001</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1712,14 +1730,55 @@
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="10:10">
-      <c r="J16" s="5"/>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>1000210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>15012001</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>10001</v>
+      </c>
+      <c r="I16">
+        <v>10001</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" s="5"/>
@@ -1732,10 +1791,10 @@
         <v>1200001</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1753,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1762,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N18" t="s">
         <v>33</v>
@@ -1776,10 +1835,10 @@
         <v>1200002</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1797,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1806,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N19" t="s">
         <v>33</v>
@@ -1820,10 +1879,10 @@
         <v>1200003</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1841,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1850,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N20" t="s">
         <v>33</v>
@@ -1864,10 +1923,10 @@
         <v>1200004</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1885,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1894,7 +1953,7 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N21" t="s">
         <v>33</v>
@@ -1908,10 +1967,10 @@
         <v>1200005</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1929,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1938,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N22" t="s">
         <v>33</v>
@@ -1952,10 +2011,10 @@
         <v>1200006</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1973,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1982,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
@@ -1996,10 +2055,10 @@
         <v>1200021</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2017,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2026,10 +2085,15 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N26" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="10:10">
+      <c r="J27" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -183,58 +183,43 @@
     <t>1,1</t>
   </si>
   <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>10003002</t>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+  </si>
+  <si>
     <t>刀疤</t>
   </si>
   <si>
     <t>10003031</t>
   </si>
   <si>
-    <t>2003001,2003002,2003003,2003004</t>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-  </si>
-  <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>10003002</t>
+    <t>2003001</t>
+  </si>
+  <si>
+    <t>大招：2003002,2003003,2003004</t>
   </si>
   <si>
     <t>上官翎_npc_001</t>
   </si>
   <si>
-    <t>2001001,2001005</t>
+    <t>2001001,2001002,2001005</t>
   </si>
   <si>
     <t>1,1,1,1,1,1</t>
   </si>
   <si>
-    <t>上官翎_npc_002</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>上官翎_npc_003</t>
-  </si>
-  <si>
-    <t>上官翎_npc_004</t>
-  </si>
-  <si>
-    <t>上官翎_npc_005</t>
-  </si>
-  <si>
-    <t>上官翎_npc_006</t>
-  </si>
-  <si>
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2001021,2001022,2001023</t>
-  </si>
-  <si>
-    <t>2001024,(唐依e技能)</t>
+    <t>2001021,2001022,2001023,2001025</t>
+  </si>
+  <si>
+    <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1680,10 +1665,10 @@
         <v>53</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="s">
         <v>54</v>
@@ -1709,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>15013001</v>
+        <v>15012001</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>56</v>
@@ -1721,16 +1706,16 @@
         <v>10001</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
         <v>57</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>58</v>
       </c>
       <c r="N15" t="s">
         <v>33</v>
@@ -1744,19 +1729,19 @@
         <v>1000210</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15012001</v>
+        <v>15013001</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -1765,23 +1750,25 @@
         <v>10001</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:10">
-      <c r="J17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
@@ -1791,10 +1778,10 @@
         <v>1200001</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1812,62 +1799,18 @@
         <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>1200002</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>15011001</v>
-      </c>
-      <c r="G19">
-        <v>10001001</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19" t="s">
-        <v>65</v>
-      </c>
-      <c r="N19" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1876,22 +1819,22 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>1200003</v>
+        <v>1200021</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>15011001</v>
+        <v>15011021</v>
       </c>
       <c r="G20">
-        <v>10001001</v>
+        <v>10001003</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1900,200 +1843,24 @@
         <v>1</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>1200004</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="21" spans="10:10">
+      <c r="J21" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>15011001</v>
-      </c>
-      <c r="G21">
-        <v>10001001</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21" t="s">
-        <v>65</v>
-      </c>
-      <c r="N21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>1200005</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>15011001</v>
-      </c>
-      <c r="G22">
-        <v>10001001</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>65</v>
-      </c>
-      <c r="N22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>1200006</v>
-      </c>
-      <c r="C23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>15011001</v>
-      </c>
-      <c r="G23">
-        <v>10001001</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>1200021</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>15011021</v>
-      </c>
-      <c r="G26">
-        <v>10001003</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26" t="s">
-        <v>63</v>
-      </c>
-      <c r="N26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="10:10">
-      <c r="J27" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>#</t>
   </si>
@@ -201,22 +201,28 @@
     <t>2003001</t>
   </si>
   <si>
-    <t>大招：2003002,2003003,2003004</t>
+    <t>上官唯 的 技能   2001001,2001002,2001003,2001004,2001005,2001006</t>
   </si>
   <si>
     <t>上官翎_npc_001</t>
   </si>
   <si>
-    <t>2001001,2001002,2001005</t>
+    <t>2001001,2003050,2003051,2003052</t>
   </si>
   <si>
     <t>1,1,1,1,1,1</t>
   </si>
   <si>
+    <t>怪物1 的 技能 2002002</t>
+  </si>
+  <si>
+    <t>怪物2 的 技能 2002002</t>
+  </si>
+  <si>
     <t>唐依_npc_001</t>
   </si>
   <si>
-    <t>2001021,2001022,2001023,2001025</t>
+    <t>2001021,2001022,2001023,2001024,2001025,2001026</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1202,10 +1208,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1765,102 +1771,113 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="5" t="s">
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" spans="10:10">
+      <c r="J18" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
         <v>0</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1200001</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>15011001</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>10001001</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>64</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
-      <c r="A20" t="s">
+    <row r="20" spans="10:10">
+      <c r="J20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="10:10">
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>1200021</v>
       </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20">
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>15011021</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>10001003</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>64</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="10:10">
-      <c r="J21" s="5" t="s">
-        <v>67</v>
+    <row r="23" spans="10:10">
+      <c r="J23" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -60,6 +60,15 @@
     <t>aiScript</t>
   </si>
   <si>
+    <t>isBoss</t>
+  </si>
+  <si>
+    <t>avatarResId</t>
+  </si>
+  <si>
+    <t>allBodyResId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -108,13 +117,22 @@
     <t>AI脚本</t>
   </si>
   <si>
+    <t>是否boss</t>
+  </si>
+  <si>
+    <t>头像资源id</t>
+  </si>
+  <si>
+    <t>全身像资源id</t>
+  </si>
+  <si>
     <t>上官唯</t>
   </si>
   <si>
     <t>原是崆峒派弟子 现在未知</t>
   </si>
   <si>
-    <t>2001001,2001002,2001003,2001004</t>
+    <t>2001001,2001002,2001003,2001004,2001005,2001006</t>
   </si>
   <si>
     <t>BaseAI</t>
@@ -135,7 +153,7 @@
     <t>峨眉弟子</t>
   </si>
   <si>
-    <t>2001021,2001022,2001023,2001024</t>
+    <t>2001021,2001022,2001023,2001024,2001025,2001026</t>
   </si>
   <si>
     <t>夜魂</t>
@@ -207,9 +225,6 @@
     <t>上官翎_npc_001</t>
   </si>
   <si>
-    <t>2001001,2003050,2003051,2003052</t>
-  </si>
-  <si>
     <t>1,1,1,1,1,1</t>
   </si>
   <si>
@@ -220,9 +235,6 @@
   </si>
   <si>
     <t>唐依_npc_001</t>
-  </si>
-  <si>
-    <t>2001021,2001022,2001023,2001024,2001025,2001026</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -1208,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1226,9 +1238,11 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="47.125" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1271,96 +1285,123 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" ht="54" spans="1:14">
+    <row r="3" ht="54" spans="1:17">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1368,16 +1409,16 @@
         <v>1000001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>15011001</v>
+        <v>15011030</v>
       </c>
       <c r="G4">
         <v>10001001</v>
@@ -1389,13 +1430,19 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P4">
+        <v>15003501</v>
+      </c>
+      <c r="Q4">
+        <v>15003603</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1403,10 +1450,10 @@
         <v>1000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1424,13 +1471,19 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P5">
+        <v>15003503</v>
+      </c>
+      <c r="Q5">
+        <v>15003601</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1438,16 +1491,16 @@
         <v>1000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>15011021</v>
+        <v>15011031</v>
       </c>
       <c r="G6">
         <v>10001003</v>
@@ -1458,14 +1511,20 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
         <v>39</v>
       </c>
-      <c r="N6" t="s">
-        <v>33</v>
+      <c r="P6">
+        <v>15003503</v>
+      </c>
+      <c r="Q6">
+        <v>15003602</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:14">
+    <row r="7" ht="15" customHeight="1" spans="1:17">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1473,10 +1532,10 @@
         <v>1000004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1494,13 +1553,19 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P7">
+        <v>15003503</v>
+      </c>
+      <c r="Q7">
+        <v>15003603</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1508,10 +1573,10 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1529,13 +1594,19 @@
         <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P8">
+        <v>15003503</v>
+      </c>
+      <c r="Q8">
+        <v>15003601</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1543,10 +1614,10 @@
         <v>1000006</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1564,21 +1635,27 @@
         <v>2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P9">
+        <v>15003503</v>
+      </c>
+      <c r="Q9">
+        <v>15003602</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:17">
       <c r="B11">
         <v>1000101</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1596,21 +1673,27 @@
         <v>2</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P11">
+        <v>15003501</v>
+      </c>
+      <c r="Q11">
+        <v>15003601</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:17">
       <c r="B12">
         <v>1000102</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1628,18 +1711,24 @@
         <v>2</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P12">
+        <v>15003503</v>
+      </c>
+      <c r="Q12">
+        <v>15003602</v>
       </c>
     </row>
     <row r="13" spans="10:10">
       <c r="J13" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1647,19 +1736,19 @@
         <v>1000201</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>15012001</v>
+        <v>15011032</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H14">
         <v>10001</v>
@@ -1668,7 +1757,7 @@
         <v>10001</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1677,13 +1766,19 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P14">
+        <v>15003501</v>
+      </c>
+      <c r="Q14">
+        <v>15003601</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1691,19 +1786,19 @@
         <v>1000202</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>15012001</v>
+        <v>15011033</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -1712,7 +1807,7 @@
         <v>10001</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1721,13 +1816,19 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P15">
+        <v>15003501</v>
+      </c>
+      <c r="Q15">
+        <v>15003602</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1735,19 +1836,19 @@
         <v>1000210</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15013001</v>
+        <v>15011034</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -1756,7 +1857,7 @@
         <v>10001</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1765,19 +1866,28 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N16" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>15003501</v>
+      </c>
+      <c r="Q16">
+        <v>15003601</v>
       </c>
     </row>
     <row r="17" ht="12" customHeight="1"/>
     <row r="18" spans="10:10">
       <c r="J18" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1785,16 +1895,16 @@
         <v>1200001</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15011001</v>
+        <v>15011030</v>
       </c>
       <c r="G19">
         <v>10001001</v>
@@ -1806,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1815,23 +1925,29 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N19" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P19">
+        <v>15003501</v>
+      </c>
+      <c r="Q19">
+        <v>15003601</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1839,16 +1955,16 @@
         <v>1200021</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>15011021</v>
+        <v>15011031</v>
       </c>
       <c r="G22">
         <v>10001003</v>
@@ -1860,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1869,15 +1985,21 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N22" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="P22">
+        <v>15003503</v>
+      </c>
+      <c r="Q22">
+        <v>15003603</v>
       </c>
     </row>
     <row r="23" spans="10:10">
       <c r="J23" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -129,7 +129,7 @@
     <t>上官唯</t>
   </si>
   <si>
-    <t>原是崆峒派弟子 现在未知</t>
+    <t>隐匿江湖，剑影如风。深藏不露，卓尔不群，他以精妙的剑术和冷静的头脑应对各种挑战。他的存在是江湖中一个谜一般的传说，迷离而令人留恋。</t>
   </si>
   <si>
     <t>2001001,2001002,2001003,2001004,2001005,2001006</t>
@@ -150,7 +150,7 @@
     <t>唐依</t>
   </si>
   <si>
-    <t>峨眉弟子</t>
+    <t>峨眉派弟子，擅长使用弓箭。她天性开朗，乐观向上，总是带着灿烂的笑容。她始终抱持正义之心，保护弱者，与邪恶势力作斗争，为维护和平而奋斗。</t>
   </si>
   <si>
     <t>2001021,2001022,2001023,2001024,2001025,2001026</t>
@@ -195,7 +195,7 @@
     <t>10003001</t>
   </si>
   <si>
-    <t>2002001</t>
+    <t>2002001,2002002</t>
   </si>
   <si>
     <t>1,1</t>
@@ -207,16 +207,22 @@
     <t>10003002</t>
   </si>
   <si>
+    <t>2002011,2002012</t>
+  </si>
+  <si>
     <t>1,1,1,1</t>
   </si>
   <si>
-    <t>刀疤</t>
+    <t>昆仑派掌门:叶须眉</t>
+  </si>
+  <si>
+    <t>他外表看起来令人称道，风度翩翩，举止得体，仿佛一位正派武林人士。然而，深入了解他的内心，才会发现他阴暗而狡诈的本性。他隐藏了邪恶的意图和自私的目的，利用自己的表面光鲜与权势地位，欺骗和欺压他人。</t>
   </si>
   <si>
     <t>10003031</t>
   </si>
   <si>
-    <t>2003001</t>
+    <t>2003001,2003050,2003051,2003052</t>
   </si>
   <si>
     <t>上官唯 的 技能   2001001,2001002,2001003,2001004,2001005,2001006</t>
@@ -243,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -256,34 +262,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,14 +278,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,6 +317,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,7 +382,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,49 +418,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,121 +556,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,21 +609,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,6 +641,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,148 +714,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -875,52 +881,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1222,14 +1228,14 @@
   <sheetPr/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -1807,7 +1813,7 @@
         <v>10001</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1816,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -1836,10 +1842,10 @@
         <v>1000210</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1848,7 +1854,7 @@
         <v>15011034</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -1857,7 +1863,7 @@
         <v>10001</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1866,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N16" t="s">
         <v>39</v>
@@ -1881,10 +1887,12 @@
         <v>15003601</v>
       </c>
     </row>
-    <row r="17" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1" spans="10:10">
+      <c r="J17" s="4"/>
+    </row>
     <row r="18" spans="10:10">
       <c r="J18" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1895,10 +1903,10 @@
         <v>1200001</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1925,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N19" t="s">
         <v>39</v>
@@ -1939,12 +1947,12 @@
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1955,10 +1963,10 @@
         <v>1200021</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1985,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N22" t="s">
         <v>39</v>
@@ -1999,7 +2007,7 @@
     </row>
     <row r="23" spans="10:10">
       <c r="J23" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2023,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2032,7 +2040,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -11,12 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>#</t>
   </si>
@@ -241,6 +254,9 @@
   </si>
   <si>
     <t>唐依_npc_001</t>
+  </si>
+  <si>
+    <t>2001021,2001022</t>
   </si>
   <si>
     <t>唐依技能 : 2001021,2001022,2001023,2001025</t>
@@ -249,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1228,7 +1244,7 @@
   <sheetPr/>
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1984,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2007,7 +2023,7 @@
     </row>
     <row r="23" spans="10:10">
       <c r="J23" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data_table/EntityInfo.xlsx
+++ b/data_table/EntityInfo.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>#</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>转表符</t>
@@ -1245,7 +1248,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1346,7 +1349,7 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -1355,7 +1358,7 @@
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -1372,55 +1375,55 @@
     </row>
     <row r="3" ht="54" spans="1:17">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1431,10 +1434,10 @@
         <v>1000001</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1452,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4">
         <v>15003501</v>
@@ -1472,10 +1475,10 @@
         <v>1000002</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1493,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P5">
         <v>15003503</v>
@@ -1513,10 +1516,10 @@
         <v>1000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1534,10 +1537,10 @@
         <v>2</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P6">
         <v>15003503</v>
@@ -1554,10 +1557,10 @@
         <v>1000004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1575,10 +1578,10 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7">
         <v>15003503</v>
@@ -1595,10 +1598,10 @@
         <v>1000005</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1616,10 +1619,10 @@
         <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8">
         <v>15003503</v>
@@ -1636,10 +1639,10 @@
         <v>1000006</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1657,10 +1660,10 @@
         <v>2</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P9">
         <v>15003503</v>
@@ -1674,10 +1677,10 @@
         <v>1000101</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1695,10 +1698,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11">
         <v>15003501</v>
@@ -1712,10 +1715,10 @@
         <v>1000102</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1733,10 +1736,10 @@
         <v>2</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P12">
         <v>15003503</v>
@@ -1747,7 +1750,7 @@
     </row>
     <row r="13" spans="10:10">
       <c r="J13" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1758,10 +1761,10 @@
         <v>1000201</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1770,7 +1773,7 @@
         <v>15011032</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <v>10001</v>
@@ -1779,7 +1782,7 @@
         <v>10001</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1788,10 +1791,10 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P14">
         <v>15003501</v>
@@ -1808,10 +1811,10 @@
         <v>1000202</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1820,7 +1823,7 @@
         <v>15011033</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>10001</v>
@@ -1829,7 +1832,7 @@
         <v>10001</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1838,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15">
         <v>15003501</v>
@@ -1858,10 +1861,10 @@
         <v>1000210</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1870,7 +1873,7 @@
         <v>15011034</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16">
         <v>10001</v>
@@ -1879,7 +1882,7 @@
         <v>10001</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1888,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -1908,7 +1911,7 @@
     </row>
     <row r="18" spans="10:10">
       <c r="J18" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1919,10 +1922,10 @@
         <v>1200001</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1940,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1949,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19">
         <v>15003501</v>
@@ -1963,12 +1966,12 @@
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1979,10 +1982,10 @@
         <v>1200021</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2000,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2009,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P22">
         <v>15003503</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="23" spans="10:10">
       <c r="J23" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
